--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1842055.808245994</v>
+        <v>1946235.442697066</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283193</v>
+        <v>416855.1052283195</v>
       </c>
     </row>
     <row r="9">
@@ -659,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -710,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>152.1189724801558</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>163.1594065778551</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498669</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -798,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609193</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -817,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>111.8048680106012</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>150.3013276789174</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>290.8263485681716</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>237.3423628479713</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>53.9489072690793</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>26.06766711767892</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>47.22593971364982</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>57.8636790527015</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1291,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>81.77200357366343</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>211.3908565657326</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1531,10 +1533,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.6255281319621</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>166.8663745188072</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>111.3213230702134</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -2005,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>277.7284229912266</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2147,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>28.54004930889236</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>123.6562577500936</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2375,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701314</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2412,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>83.06560892428122</v>
+        <v>88.07243242897347</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2564,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417083</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2649,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2682,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T27" t="n">
         <v>188.3046392154443</v>
@@ -2713,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>45.66054613217723</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>159.266187089884</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,10 +2806,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187843</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T30" t="n">
         <v>188.3046392154443</v>
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>104.7777418077823</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>92.41552299048858</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T33" t="n">
         <v>188.3046392154443</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>22.61263105777429</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>37.19933342822824</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634776</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3360,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3393,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T36" t="n">
         <v>188.3046392154443</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>21.9028628750529</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>178.2642147042091</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187834</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T39" t="n">
         <v>188.3046392154443</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -3676,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>203.2518487071472</v>
+        <v>215.3025979624043</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710044</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3834,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3904,7 +3906,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>18.70843787977175</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>196.7867454260309</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3977,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710053</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T45" t="n">
         <v>188.3046392154443</v>
@@ -4138,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>11.79076481679222</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>163.3542162903796</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1959.379186075721</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4352,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3061.659625378532</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136266</v>
+        <v>2808.129148652368</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792695</v>
+        <v>2808.129148652368</v>
       </c>
       <c r="W2" t="n">
-        <v>2719.444784400922</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.979026139843</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.979026139843</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064755</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080134</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986308</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218342</v>
+        <v>348.3825094718087</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218342</v>
+        <v>179.4463265439018</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218342</v>
+        <v>179.4463265439018</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>179.4463265439018</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4510,28 +4512,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>729.2011216450112</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>507.4345062145372</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U4" t="n">
-        <v>218.3316393401808</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V4" t="n">
-        <v>218.3316393401808</v>
+        <v>576.372060369826</v>
       </c>
       <c r="W4" t="n">
-        <v>218.3316393401808</v>
+        <v>576.372060369826</v>
       </c>
       <c r="X4" t="n">
-        <v>66.51211643218342</v>
+        <v>348.3825094718087</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218342</v>
+        <v>348.3825094718087</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2269.968910186252</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912092</v>
@@ -4577,16 +4579,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250374</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X5" t="n">
-        <v>2656.568750250374</v>
+        <v>2438.534757724422</v>
       </c>
       <c r="Y5" t="n">
-        <v>2656.568750250374</v>
+        <v>2048.39542574861</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4622,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064629</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4665,7 +4667,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4674,16 +4676,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>218.3316393401808</v>
+        <v>550.0410834832817</v>
       </c>
       <c r="C7" t="n">
-        <v>218.3316393401808</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D7" t="n">
-        <v>218.3316393401808</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E7" t="n">
-        <v>218.3316393401808</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>218.3316393401808</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>218.3316393401808</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>729.2011216450112</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>507.4345062145372</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>218.3316393401808</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V7" t="n">
-        <v>218.3316393401808</v>
+        <v>576.372060369826</v>
       </c>
       <c r="W7" t="n">
-        <v>218.3316393401808</v>
+        <v>576.372060369826</v>
       </c>
       <c r="X7" t="n">
-        <v>218.3316393401808</v>
+        <v>550.0410834832817</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.3316393401808</v>
+        <v>550.0410834832817</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267228</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2807.649436607934</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2807.649436607934</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>2434.183678346854</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>846.071687106475</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>827.0643955080129</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>362.8459426266613</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="C10" t="n">
-        <v>362.8459426266613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>617.5304308325482</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V10" t="n">
-        <v>362.8459426266613</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W10" t="n">
-        <v>362.8459426266613</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="X10" t="n">
-        <v>362.8459426266613</v>
+        <v>149.1100998399243</v>
       </c>
       <c r="Y10" t="n">
-        <v>362.8459426266613</v>
+        <v>149.1100998399243</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>924.6979859831846</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>755.7618030552777</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>605.645163642942</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1106.346450813424</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,7 +5290,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>245.2306927803938</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438171</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>951.3929232910497</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E16" t="n">
         <v>484.8112968429802</v>
@@ -5431,55 +5433,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038303</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797704</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.47159895366</v>
+        <v>2160.3159148556</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>1871.240688199797</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1871.240688199797</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1581.823518162837</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>1353.833967264819</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>1133.041388121289</v>
       </c>
     </row>
     <row r="17">
@@ -5504,19 +5506,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9123021921476</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898186995</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373306</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612593</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1983.574488637966</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1728.890000432079</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5765,7 +5767,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,22 +5834,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1366.386875345992</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1918.296605585279</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2341.919755080347</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3175.341129796739</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C22" t="n">
-        <v>3006.404946868832</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
-        <v>2856.288307456496</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>2708.375213874103</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>2561.485266376193</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4507.978318053498</v>
+        <v>2351.089047197418</v>
       </c>
       <c r="T22" t="n">
-        <v>4288.376853076439</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="U22" t="n">
-        <v>3999.301626420637</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V22" t="n">
-        <v>3874.396315561957</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W22" t="n">
-        <v>3584.979145524996</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X22" t="n">
-        <v>3356.989594626978</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y22" t="n">
-        <v>3356.989594626978</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="23">
@@ -5969,58 +5971,58 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273899</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803936</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.155464951614</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167372</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793924</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400708</v>
+        <v>870.3164745246296</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121639</v>
+        <v>701.3802915967227</v>
       </c>
       <c r="D25" t="n">
-        <v>261.0127623330919</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6150,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6165,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138406</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703105</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406465</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6218,58 +6220,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6293,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797182</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756264</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>577.3880777468469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>1174.766565373398</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>1802.364528928005</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558402</v>
+        <v>3175.341129796739</v>
       </c>
       <c r="C28" t="n">
-        <v>2757.723669558402</v>
+        <v>3006.404946868832</v>
       </c>
       <c r="D28" t="n">
-        <v>2607.607030146066</v>
+        <v>2856.288307456496</v>
       </c>
       <c r="E28" t="n">
-        <v>2607.607030146066</v>
+        <v>2708.375213874103</v>
       </c>
       <c r="F28" t="n">
-        <v>2561.48526637619</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.48526637619</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218388</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866302</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296626</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822165</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998105</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729139</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389147</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098132</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671691</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650993</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305897</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328838</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673036</v>
+        <v>4060.456212874413</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.57143446715</v>
+        <v>3805.771724668526</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430189</v>
+        <v>3805.771724668526</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532172</v>
+        <v>3577.782173770509</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388642</v>
+        <v>3356.989594626978</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756264</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913849</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417936</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972543</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211829</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1057.61331560176</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>888.6771326738528</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="D31" t="n">
-        <v>738.5604932615171</v>
+        <v>583.3384263047943</v>
       </c>
       <c r="E31" t="n">
-        <v>590.647399679124</v>
+        <v>583.3384263047943</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>436.4484788068839</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>269.2523795217639</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510507</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510507</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1977.461080510507</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1688.043910473547</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>1460.054359575529</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>1239.261780431999</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,25 +6688,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192895</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111743</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075833</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.55866301478</v>
@@ -6713,13 +6715,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6777,25 +6779,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245718</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403302</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266882</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400708</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400708</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D34" t="n">
-        <v>491.0125592675715</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851784</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851784</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6859,10 +6861,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6876,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2342.342295561725</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2122.740830584667</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1833.665603928865</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138406</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703105</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6931,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6938,49 +6940,49 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7002,37 +7004,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756264</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468469</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962605</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313769</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400703</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121634</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D37" t="n">
-        <v>322.7933138979686</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E37" t="n">
-        <v>322.7933138979686</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.50206557031</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406465</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168579</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192581</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7241,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273893</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803935</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803935</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L39" t="n">
-        <v>739.535451687217</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313769</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>779.6143379232836</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232836</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854705</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648818</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W40" t="n">
-        <v>1228.396467964831</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X40" t="n">
-        <v>1000.406917066814</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y40" t="n">
-        <v>779.6143379232836</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7403,58 +7405,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7476,37 +7478,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756264</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756264</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>634.5603720565533</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683105</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400703</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121634</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D43" t="n">
-        <v>194.8007783998277</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E43" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487566</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510507</v>
+        <v>2248.188593250933</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854705</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648818</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138402</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.50206557031</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797045</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468469</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962605</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143763</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>576.8388927589091</v>
+        <v>1028.490320362745</v>
       </c>
       <c r="C46" t="n">
-        <v>407.9027098310022</v>
+        <v>859.5541374348384</v>
       </c>
       <c r="D46" t="n">
-        <v>407.9027098310022</v>
+        <v>709.4374980225026</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310022</v>
+        <v>561.5244044401095</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>414.6344569421991</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797183</v>
+        <v>247.4383576570791</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797183</v>
+        <v>105.7265264992771</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853353</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580252</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832655</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487559</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.4610805105</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854698</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648811</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.28419561185</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X46" t="n">
-        <v>979.2799367326789</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="Y46" t="n">
-        <v>758.4873575891488</v>
+        <v>1210.138785192985</v>
       </c>
     </row>
   </sheetData>
@@ -23273,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,10 +23421,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>26.80843451460704</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.3804465798205854</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23704,13 +23706,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>106.0841272570749</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>8.456051398017564</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24139,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>152.4862366927522</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>128.4813855737344</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.54986409393113</v>
+        <v>60.54304058923888</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>99.76050189075401</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24655,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>126.9182872993601</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>40.64330621514893</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>47.87918985573531</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24889,13 +24891,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>126.0028419604381</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>143.8269525734163</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>126.7126101431595</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>40.32043864788571</v>
       </c>
     </row>
     <row r="38">
@@ -25394,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>83.27114962944381</v>
+        <v>71.22040037418671</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25792,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>127.7255247667974</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25801,7 +25803,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>20.61870490125733</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856556</v>
+        <v>69.47507150177331</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>62.3554390986576</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862752.5287998142</v>
+        <v>862752.5287998143</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>862752.5287998144</v>
+        <v>862752.5287998143</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>862752.5287998142</v>
+        <v>862752.5287998143</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>862752.5287998142</v>
+        <v>862752.5287998143</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>862752.5287998143</v>
+        <v>862752.5287998144</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>862752.5287998141</v>
+        <v>862752.5287998143</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
+        <v>574729.2389049986</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049985</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="G2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="H2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="H2" t="n">
-        <v>565002.6197830047</v>
-      </c>
-      <c r="I2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
+        <v>565002.6197830039</v>
+      </c>
+      <c r="O2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830042</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.619783004</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830042</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.619783004</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26436,25 +26438,25 @@
         <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
-        <v>16046.58397189213</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189208</v>
+        <v>16046.58397189204</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189211</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189198</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-955546.1914880397</v>
+        <v>-955546.1914880398</v>
       </c>
       <c r="C6" t="n">
+        <v>373198.5542395528</v>
+      </c>
+      <c r="D6" t="n">
         <v>373198.5542395527</v>
       </c>
-      <c r="D6" t="n">
-        <v>373198.5542395526</v>
-      </c>
       <c r="E6" t="n">
-        <v>122421.0441798499</v>
+        <v>122421.0441798502</v>
       </c>
       <c r="F6" t="n">
-        <v>447833.5059872055</v>
+        <v>447833.5059872052</v>
       </c>
       <c r="G6" t="n">
-        <v>447833.5059872054</v>
+        <v>447833.5059872051</v>
       </c>
       <c r="H6" t="n">
-        <v>447833.5059872057</v>
+        <v>447833.5059872051</v>
       </c>
       <c r="I6" t="n">
-        <v>447833.5059872055</v>
+        <v>447833.5059872053</v>
       </c>
       <c r="J6" t="n">
-        <v>230302.303589928</v>
+        <v>230302.3035899277</v>
       </c>
       <c r="K6" t="n">
         <v>447833.5059872051</v>
       </c>
       <c r="L6" t="n">
-        <v>447833.5059872051</v>
+        <v>447833.5059872053</v>
       </c>
       <c r="M6" t="n">
-        <v>362778.4780516932</v>
+        <v>362778.4780516938</v>
       </c>
       <c r="N6" t="n">
+        <v>447833.5059872048</v>
+      </c>
+      <c r="O6" t="n">
+        <v>447833.5059872054</v>
+      </c>
+      <c r="P6" t="n">
         <v>447833.5059872053</v>
-      </c>
-      <c r="O6" t="n">
-        <v>447833.5059872051</v>
-      </c>
-      <c r="P6" t="n">
-        <v>447833.505987205</v>
       </c>
     </row>
   </sheetData>
@@ -26756,28 +26758,28 @@
         <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="K3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="L3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="M3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="N3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
     </row>
     <row r="4">
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>51.79899765946436</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>186.0815621395579</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>33.61618001233005</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>75.40832771011975</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>74.44654320283593</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>132.3887378304977</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>90.80610764524148</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>199.6419882713582</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>335.5079019498307</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>269.8885794174334</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>85.47481752496441</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>74.82098163988027</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28324,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28509,7 +28511,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -29524,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30517,7 +30519,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30657,7 +30659,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,10 +31843,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,10 +31855,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32081,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>493.6049778318539</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>209.9499448422519</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>186.6878763515707</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32470,34 +32472,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>379.4203056753705</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>316.2462973459351</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.883274947307</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862118</v>
+        <v>669.5976799347666</v>
       </c>
       <c r="N24" t="n">
-        <v>320.9147064709973</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32862,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32892,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862118</v>
+        <v>516.654215558583</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>628.2482078836106</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33099,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33129,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862118</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071782</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>171.7382405950835</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33336,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33366,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067262</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305205</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071782</v>
+        <v>697.0074482175629</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437241</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33573,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33603,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422584</v>
+        <v>229.6463482471742</v>
       </c>
       <c r="L36" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>409.0029787211732</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33810,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33840,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>637.8521160493929</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>533.6019216798004</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071782</v>
+        <v>709.4760096096878</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067242</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>363.5371514786855</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,13 +34471,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,10 +35491,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,10 +35503,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>359.6305704175236</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.332588409631</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>71.39556506237767</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>44.0916319071262</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>176.2645232599136</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774872</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674328</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>527.4636460127483</v>
       </c>
       <c r="N24" t="n">
-        <v>189.572994387664</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789205</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>374.5201816365647</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>485.6519634391662</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789205</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238449</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>37.76383318075324</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236320278</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561615</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238449</v>
+        <v>565.6657361342296</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992796</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678994</v>
+        <v>91.80490927281524</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>266.8689447991549</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>499.2977362695187</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992796</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789205</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>395.0475418999262</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238449</v>
+        <v>578.1342975263545</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306621</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236318326</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38095,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>220.940907034241</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789205</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066173</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1946235.442697066</v>
+        <v>1942222.832683073</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283195</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>298.6212073486038</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>152.1189724801558</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609193</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>111.8048680106012</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>59.50286836346318</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>195.5565936082887</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>237.3423628479713</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>58.28185552386346</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>26.06766711767892</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47.22593971364982</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>40.12741312164616</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>81.77200357366343</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>58.28185552386314</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.6255281319621</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>104.6857048437772</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444152</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>166.8663745188072</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>123.7971820797035</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>8.616048582070279</v>
       </c>
       <c r="U19" t="n">
-        <v>277.7284229912266</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.017717176686</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>28.54004930889236</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>88.07243242897347</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428209</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187877</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>159.266187089884</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>92.41552299048858</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>37.19933342822824</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,10 +3246,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444152</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>3.453391420151069</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>178.2642147042091</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144415</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>139.1630968205466</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>215.3025979624043</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>38.05096575280812</v>
       </c>
       <c r="T43" t="n">
-        <v>196.7867454260309</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>11.79076481679222</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.62132134232</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1137.401303008949</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>779.1356044021989</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>779.1356044021989</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>368.1496996125913</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3061.659625378532</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2808.129148652368</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2808.129148652368</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W2" t="n">
-        <v>2455.360493382254</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X2" t="n">
-        <v>2455.360493382254</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y2" t="n">
-        <v>2065.221161406442</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686084</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064759</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080138</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986312</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.3825094718087</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C4" t="n">
-        <v>179.4463265439018</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>179.4463265439018</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>179.4463265439018</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>576.372060369826</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W4" t="n">
-        <v>576.372060369826</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X4" t="n">
-        <v>348.3825094718087</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.3825094718087</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1661.795585684488</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="C5" t="n">
-        <v>1292.833068744076</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="D5" t="n">
-        <v>934.5673701373257</v>
+        <v>1517.887535471215</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1132.099282872971</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>721.1133780833634</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>306.0409279283598</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4579,16 +4579,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176918</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2438.534757724422</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>2048.39542574861</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4652,46 +4652,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>550.0410834832817</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C7" t="n">
-        <v>381.1049005553748</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D7" t="n">
-        <v>381.1049005553748</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>272.2726250653094</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>125.382677567399</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>576.372060369826</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>576.372060369826</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>550.0410834832817</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>550.0410834832817</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1986.901740067214</v>
+        <v>1238.038871968308</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>869.0763550278964</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>510.8106564211459</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>125.0224038229017</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>118.0769030736982</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>107.0448569590987</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>107.0448569590987</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
@@ -4819,37 +4819,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2388.243802269321</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450753</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y8" t="n">
-        <v>2034.604709474942</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>936.5735814686075</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>827.0643955080129</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.1100998399243</v>
+        <v>739.2385409879448</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>570.3023580600379</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>420.1857186477022</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>272.2726250653091</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>125.3826775673987</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>125.3826775673987</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962283</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>631.7841389438285</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>377.0996507379416</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>377.0996507379416</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>149.1100998399243</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
-        <v>149.1100998399243</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>924.6979859831846</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C13" t="n">
-        <v>755.7618030552777</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D13" t="n">
-        <v>605.645163642942</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.139029956954</v>
+        <v>1327.958229442984</v>
       </c>
       <c r="X13" t="n">
-        <v>1327.139029956954</v>
+        <v>1099.968678544967</v>
       </c>
       <c r="Y13" t="n">
-        <v>1106.346450813424</v>
+        <v>879.1760994014371</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362701</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5287,43 +5287,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718124</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.528408326419</v>
       </c>
       <c r="O15" t="n">
-        <v>1963.765362972544</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.3929232910497</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038303</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797704</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910805</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832659</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.3159148556</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199797</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1871.240688199797</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1581.823518162837</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1353.833967264819</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.041388121289</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,52 +5503,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>590.9096564684977</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1188.28814409505</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1815.886107649656</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>809.0422355233313</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C19" t="n">
-        <v>640.1060525954244</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D19" t="n">
-        <v>489.9894131830887</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U19" t="n">
-        <v>1983.574488637966</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V19" t="n">
-        <v>1728.890000432079</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W19" t="n">
-        <v>1439.472830395119</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X19" t="n">
-        <v>1211.483279497101</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y19" t="n">
-        <v>990.6907003535711</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>788.0191461778176</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2351.089047197418</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2131.487582220359</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5971,28 +5971,28 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,13 +6001,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>427.7414352191925</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>870.3164745246296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>701.3802915967227</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6205,70 +6205,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516142</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3175.341129796739</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>3006.404946868832</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>2856.288307456496</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>2708.375213874103</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>2561.485266376193</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>4060.456212874413</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>3805.771724668526</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>3805.771724668526</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>3577.782173770509</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>3356.989594626978</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6448,52 +6448,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>733.4550657171301</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>583.3384263047943</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>583.3384263047943</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>436.4484788068839</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>269.2523795217639</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,28 +6776,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511906</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2342.342295561725</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2122.740830584667</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1833.665603928865</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1578.981115722978</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1578.981115722978</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1350.99156482496</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.19898568143</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6916,61 +6916,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168627</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362701</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192633</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>554.5813165460164</v>
+        <v>878.3568999154069</v>
       </c>
       <c r="C37" t="n">
-        <v>385.6451336181095</v>
+        <v>709.4207169875</v>
       </c>
       <c r="D37" t="n">
-        <v>235.5284942057738</v>
+        <v>559.3040775751642</v>
       </c>
       <c r="E37" t="n">
-        <v>235.5284942057738</v>
+        <v>411.3909839927711</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>264.5010364948607</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>97.30493720974067</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y37" t="n">
-        <v>736.2297813762561</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362699</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2022.116874200839</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>1092.345997432835</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>923.4098145049279</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>773.2931750925922</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>625.380081510199</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304621</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>1494.787041406604</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>1273.994462263074</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2092.798483612594</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>784.5811134804959</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>615.644930552589</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578601</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
         <v>317.6151975578601</v>
@@ -7566,55 +7566,55 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580257</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580257</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="T43" t="n">
-        <v>2248.188593250933</v>
+        <v>2341.482060890433</v>
       </c>
       <c r="U43" t="n">
-        <v>1959.113366595131</v>
+        <v>2052.406834234631</v>
       </c>
       <c r="V43" t="n">
-        <v>1704.428878389244</v>
+        <v>1797.722346028744</v>
       </c>
       <c r="W43" t="n">
-        <v>1415.011708352283</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X43" t="n">
-        <v>1187.022157454266</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y43" t="n">
-        <v>966.2295783107356</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797045</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1028.490320362745</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>859.5541374348384</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>709.4374980225026</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>561.5244044401095</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>414.6344569421991</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>247.4383576570791</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>105.7265264992771</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1430.931364336515</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1210.138785192985</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>26.80843451460704</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>181.8372934928138</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3804465798205854</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>57.22910392194107</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>208.789401745218</v>
       </c>
       <c r="U19" t="n">
-        <v>8.456051398017564</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>152.4862366927522</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>60.54304058923888</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>126.9182872993601</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>47.87918985573531</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>143.8269525734163</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>136.8413214260728</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>40.32043864788571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>6.257951202384675</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>71.22040037418671</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25797,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>142.9753202488365</v>
       </c>
       <c r="T43" t="n">
-        <v>20.61870490125733</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>69.47507150177331</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>862752.5287998143</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>862752.5287998143</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>862752.5287998143</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>862752.5287998143</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>862752.5287998144</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>862752.5287998143</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>862752.5287998142</v>
+        <v>862752.5287998144</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>862752.5287998143</v>
+        <v>862752.5287998144</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>862752.5287998142</v>
+        <v>862752.5287998143</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>862752.5287998143</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049988</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049982</v>
       </c>
       <c r="E2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="F2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="F2" t="n">
-        <v>565002.6197830043</v>
-      </c>
       <c r="G2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="I2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830042</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830045</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830039</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="O2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073559</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.0279355121</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>93596.7441040525</v>
+      </c>
+      <c r="C4" t="n">
+        <v>93596.74410405256</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405257</v>
-      </c>
-      <c r="C4" t="n">
-        <v>93596.74410405252</v>
-      </c>
-      <c r="D4" t="n">
-        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189191</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
+        <v>16046.58397189193</v>
+      </c>
+      <c r="K4" t="n">
         <v>16046.58397189197</v>
-      </c>
-      <c r="K4" t="n">
-        <v>16046.58397189204</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
+        <v>16046.58397189191</v>
+      </c>
+      <c r="N4" t="n">
+        <v>16046.58397189192</v>
+      </c>
+      <c r="O4" t="n">
         <v>16046.58397189197</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16046.58397189197</v>
-      </c>
-      <c r="O4" t="n">
-        <v>16046.58397189198</v>
       </c>
       <c r="P4" t="n">
         <v>16046.58397189197</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-955546.1914880398</v>
+        <v>-955546.1914880397</v>
       </c>
       <c r="C6" t="n">
         <v>373198.5542395528</v>
       </c>
       <c r="D6" t="n">
-        <v>373198.5542395527</v>
+        <v>373198.5542395526</v>
       </c>
       <c r="E6" t="n">
-        <v>122421.0441798502</v>
+        <v>122073.6649254927</v>
       </c>
       <c r="F6" t="n">
-        <v>447833.5059872052</v>
+        <v>447486.1267328484</v>
       </c>
       <c r="G6" t="n">
-        <v>447833.5059872051</v>
+        <v>447486.1267328486</v>
       </c>
       <c r="H6" t="n">
-        <v>447833.5059872051</v>
+        <v>447486.1267328485</v>
       </c>
       <c r="I6" t="n">
-        <v>447833.5059872053</v>
+        <v>447486.1267328483</v>
       </c>
       <c r="J6" t="n">
-        <v>230302.3035899277</v>
+        <v>229954.9243355711</v>
       </c>
       <c r="K6" t="n">
-        <v>447833.5059872051</v>
+        <v>447486.1267328484</v>
       </c>
       <c r="L6" t="n">
-        <v>447833.5059872053</v>
+        <v>447486.1267328485</v>
       </c>
       <c r="M6" t="n">
-        <v>362778.4780516938</v>
+        <v>362431.0987973364</v>
       </c>
       <c r="N6" t="n">
-        <v>447833.5059872048</v>
+        <v>447486.1267328484</v>
       </c>
       <c r="O6" t="n">
-        <v>447833.5059872054</v>
+        <v>447486.1267328485</v>
       </c>
       <c r="P6" t="n">
-        <v>447833.5059872053</v>
+        <v>447486.1267328484</v>
       </c>
     </row>
   </sheetData>
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973568</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>112.3005183048497</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>51.79899765946436</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>33.61618001233005</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27596,16 +27596,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>159.0817849886316</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>99.05117077903176</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>132.3887378304977</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>107.7439527351648</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,13 +27833,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>199.6419882713582</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>335.5079019498307</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1.449516651279815</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>85.47481752496441</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>86.47315939045764</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,16 +28067,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.063451355892333e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28511,7 +28511,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30519,7 +30519,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30659,7 +30659,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192546</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>514.8598010172127</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>493.6049778318539</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>467.1465236515247</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>186.6878763515707</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>379.4203056753705</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M24" t="n">
-        <v>669.5976799347666</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,22 +33028,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M27" t="n">
-        <v>516.654215558583</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>697.0074482175629</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067235</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>229.6463482471742</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>709.4760096096878</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067242</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359212</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>376.3054212373385</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>359.6305704175236</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409631</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>328.5921438716505</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>44.0916319071262</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>237.2862717533522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M24" t="n">
-        <v>527.4636460127483</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M27" t="n">
-        <v>374.5201816365647</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,22 +36916,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>565.6657361342296</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317594</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>91.80490927281524</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>578.1342975263545</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306621</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236318326</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1942222.832683073</v>
+        <v>1943983.362985859</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>347.4416819816008</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>298.6212073486038</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -819,19 +819,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>54.45803047044429</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>59.50286836346318</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>195.5565936082887</v>
+        <v>195.5565936082896</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>88.58584547962775</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>58.28185552386346</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>40.12741312164616</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>177.2979137777587</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>58.28185552386314</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.28185552386362</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1527,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>104.6857048437772</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>132.1190787273716</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444152</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>55.52079624060472</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>123.7971820797035</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176204</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>8.616048582070279</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.017717176686</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428209</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187877</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444152</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>31.26260713376563</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>3.453391420151069</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.154082144415</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>139.1630968205466</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>38.05096575280812</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673023</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1506.363819949361</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="C2" t="n">
-        <v>1137.401303008949</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>779.1356044021989</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>779.1356044021989</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>368.1496996125913</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2656.568750250374</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X2" t="n">
-        <v>2283.102991989294</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y2" t="n">
-        <v>1892.963660013483</v>
+        <v>2029.572515263129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686084</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064759</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080138</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986312</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>679.1346335501037</v>
+        <v>290.4564109463977</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>121.5202280184908</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>920.887005818185</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y4" t="n">
-        <v>860.7830983803434</v>
+        <v>472.1048757766374</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1517.887535471215</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="C5" t="n">
-        <v>1517.887535471215</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="D5" t="n">
-        <v>1517.887535471215</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="E5" t="n">
-        <v>1132.099282872971</v>
+        <v>1132.099282872972</v>
       </c>
       <c r="F5" t="n">
-        <v>721.1133780833634</v>
+        <v>721.1133780833643</v>
       </c>
       <c r="G5" t="n">
-        <v>306.0409279283598</v>
+        <v>306.0409279283608</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4579,16 +4579,16 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4600,19 +4600,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535337</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535337</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="6">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>739.2385409879452</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>570.3023580600383</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
-        <v>420.1857186477025</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>272.2726250653094</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>125.382677567399</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>666.2025176122982</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>376.7853475753375</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>376.7853475753375</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181849</v>
+        <v>155.9927684318074</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968308</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>869.0763550278964</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>510.8106564211459</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>125.0224038229017</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>118.0769030736982</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>107.0448569590987</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>107.0448569590987</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269321</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879448</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600379</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477022</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>272.2726250653091</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>125.3826775673987</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>125.3826775673987</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181845</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5029,25 +5029,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5059,22 +5059,22 @@
         <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>697.5276345711974</v>
+        <v>782.841029837709</v>
       </c>
       <c r="C13" t="n">
-        <v>697.5276345711974</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5238,13 +5238,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1327.958229442984</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1099.968678544967</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>879.1760994014371</v>
+        <v>782.841029837709</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362701</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,37 +5293,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>949.9304447718124</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718124</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.528408326419</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="17">
@@ -5494,25 +5494,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111718</v>
@@ -5521,7 +5521,7 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694709</v>
@@ -5539,25 +5539,25 @@
         <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F19" t="n">
-        <v>261.012762333092</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797191</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,34 +5691,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1127.193030315072</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5755,7 +5755,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5767,37 +5767,37 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,19 +5977,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075809</v>
@@ -6001,37 +6001,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6205,70 +6205,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,10 +6475,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168627</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362701</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192633</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>878.3568999154069</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C37" t="n">
-        <v>709.4207169875</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D37" t="n">
-        <v>559.3040775751642</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E37" t="n">
-        <v>411.3909839927711</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F37" t="n">
-        <v>264.5010364948607</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>97.30493720974067</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362699</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.345997432835</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>923.4098145049279</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>773.2931750925922</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>625.380081510199</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1722.776592304622</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1494.787041406604</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1273.994462263074</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,16 +7423,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2341.482060890433</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2341.482060890433</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2052.406834234631</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1797.722346028744</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1508.305175991783</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -23415,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>181.8372934928138</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>86.46557462472316</v>
       </c>
     </row>
     <row r="14">
@@ -23658,19 +23658,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>84.77391660561915</v>
       </c>
       <c r="I16" t="n">
         <v>81.2658363185655</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>57.22910392194107</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>208.789401745218</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>136.8413214260728</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>6.257951202384675</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9753202488365</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194188</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>862752.5287998143</v>
+        <v>862752.5287998144</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>862752.5287998142</v>
+        <v>862752.5287998143</v>
       </c>
     </row>
     <row r="8">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>862752.5287998144</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>862752.5287998143</v>
+        <v>862752.5287998142</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>862752.5287998142</v>
+        <v>862752.5287998144</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049986</v>
+      </c>
+      <c r="C2" t="n">
         <v>574729.2389049988</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>574729.2389049986</v>
       </c>
-      <c r="D2" t="n">
-        <v>574729.2389049982</v>
-      </c>
       <c r="E2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="F2" t="n">
         <v>565002.6197830046</v>
       </c>
-      <c r="F2" t="n">
-        <v>565002.6197830044</v>
-      </c>
       <c r="G2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="H2" t="n">
         <v>565002.6197830045</v>
@@ -26337,25 +26337,25 @@
         <v>565002.6197830044</v>
       </c>
       <c r="J2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="N2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="O2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073559</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355121</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189191</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
@@ -26450,10 +26450,10 @@
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189191</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-955546.1914880397</v>
+        <v>-955546.1914880398</v>
       </c>
       <c r="C6" t="n">
+        <v>373198.5542395529</v>
+      </c>
+      <c r="D6" t="n">
         <v>373198.5542395528</v>
       </c>
-      <c r="D6" t="n">
-        <v>373198.5542395526</v>
-      </c>
       <c r="E6" t="n">
-        <v>122073.6649254927</v>
+        <v>122386.3062544142</v>
       </c>
       <c r="F6" t="n">
-        <v>447486.1267328484</v>
+        <v>447798.7680617698</v>
       </c>
       <c r="G6" t="n">
-        <v>447486.1267328486</v>
+        <v>447798.7680617698</v>
       </c>
       <c r="H6" t="n">
-        <v>447486.1267328485</v>
+        <v>447798.76806177</v>
       </c>
       <c r="I6" t="n">
-        <v>447486.1267328483</v>
+        <v>447798.7680617695</v>
       </c>
       <c r="J6" t="n">
-        <v>229954.9243355711</v>
+        <v>230267.5656644921</v>
       </c>
       <c r="K6" t="n">
-        <v>447486.1267328484</v>
+        <v>447798.7680617694</v>
       </c>
       <c r="L6" t="n">
-        <v>447486.1267328485</v>
+        <v>447798.7680617695</v>
       </c>
       <c r="M6" t="n">
-        <v>362431.0987973364</v>
+        <v>362743.7401262578</v>
       </c>
       <c r="N6" t="n">
-        <v>447486.1267328484</v>
+        <v>447798.7680617694</v>
       </c>
       <c r="O6" t="n">
-        <v>447486.1267328485</v>
+        <v>447798.7680617694</v>
       </c>
       <c r="P6" t="n">
-        <v>447486.1267328484</v>
+        <v>447798.7680617695</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,16 +26804,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26822,10 +26822,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973568</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>17.83120978940673</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>112.3005183048497</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>94.15744254776807</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>159.0817849886316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>99.05117077903176</v>
+        <v>99.05117077903085</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>91.24613470230955</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>107.7439527351648</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27833,16 +27833,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>1.449516651279815</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>150.4543446923762</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>86.47315939045764</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282312</v>
       </c>
     </row>
     <row r="11">
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.063451355892333e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31852,10 +31852,10 @@
         <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9598929192546</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32074,7 +32074,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32083,19 +32083,19 @@
         <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>514.8598010172127</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>467.1465236515247</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33420,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067235</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>337.5641188593843</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35500,10 +35500,10 @@
         <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>332.6181808359212</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754089</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>376.3054212373385</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>328.5921438716505</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>199.0097390795101</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>199.0097390795101</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317594</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,16 +37390,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>199.0097390795101</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>199.0097390795101</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>199.0097390795101</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
